--- a/LG-Poject.xlsx
+++ b/LG-Poject.xlsx
@@ -2040,33 +2040,33 @@
     <xf numFmtId="0" fontId="48" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="50" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2792,25 +2792,25 @@
         </c:ser>
         <c:gapWidth val="0"/>
         <c:overlap val="100"/>
-        <c:axId val="122785792"/>
-        <c:axId val="122787328"/>
+        <c:axId val="122982400"/>
+        <c:axId val="122983936"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="122785792"/>
+        <c:axId val="122982400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="l"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="122787328"/>
+        <c:crossAx val="122983936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="122787328"/>
+        <c:axId val="122983936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2818,7 +2818,7 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="122785792"/>
+        <c:crossAx val="122982400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2833,7 +2833,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2903,25 +2903,25 @@
           </c:val>
         </c:ser>
         <c:gapWidth val="0"/>
-        <c:axId val="122801152"/>
-        <c:axId val="121914112"/>
+        <c:axId val="123010048"/>
+        <c:axId val="121316096"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="122801152"/>
+        <c:axId val="123010048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="l"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="121914112"/>
+        <c:crossAx val="121316096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="121914112"/>
+        <c:axId val="121316096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2931,7 +2931,7 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="122801152"/>
+        <c:crossAx val="123010048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2955,7 +2955,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2974,7 +2974,7 @@
           <c:x val="3.273809523809524E-2"/>
           <c:y val="0"/>
           <c:w val="0.93452380952380965"/>
-          <c:h val="0.84897716143690982"/>
+          <c:h val="0.84897716143690971"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -3067,8 +3067,8 @@
           </c:val>
         </c:ser>
         <c:gapWidth val="0"/>
-        <c:axId val="121945088"/>
-        <c:axId val="121955072"/>
+        <c:axId val="121347072"/>
+        <c:axId val="121369344"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -3167,11 +3167,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="121942016"/>
-        <c:axId val="121943552"/>
+        <c:axId val="121344000"/>
+        <c:axId val="121345536"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="121942016"/>
+        <c:axId val="121344000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3199,7 +3199,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="121943552"/>
+        <c:crossAx val="121345536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -3207,7 +3207,7 @@
         <c:majorTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="121943552"/>
+        <c:axId val="121345536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3215,26 +3215,26 @@
         <c:axPos val="l"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="121942016"/>
+        <c:crossAx val="121344000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="121945088"/>
+        <c:axId val="121347072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="121955072"/>
+        <c:crossAx val="121369344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="121955072"/>
+        <c:axId val="121369344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3242,7 +3242,7 @@
         <c:axPos val="r"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="121945088"/>
+        <c:crossAx val="121347072"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3275,7 +3275,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000167" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000167" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000178" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000178" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3291,8 +3291,8 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="9.2719816272965716E-2"/>
-          <c:y val="3.6111111111111177E-2"/>
+          <c:x val="9.2719816272965702E-2"/>
+          <c:y val="3.6111111111111184E-2"/>
           <c:w val="0.86888506124234466"/>
           <c:h val="0.70944473607465763"/>
         </c:manualLayout>
@@ -3471,8 +3471,8 @@
           </c:val>
         </c:ser>
         <c:gapWidth val="50"/>
-        <c:axId val="122863616"/>
-        <c:axId val="122865152"/>
+        <c:axId val="123068416"/>
+        <c:axId val="123069952"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -3820,11 +3820,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="122863616"/>
-        <c:axId val="122865152"/>
+        <c:axId val="123068416"/>
+        <c:axId val="123069952"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="122863616"/>
+        <c:axId val="123068416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3860,14 +3860,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="122865152"/>
+        <c:crossAx val="123069952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="122865152"/>
+        <c:axId val="123069952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3915,7 +3915,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="122863616"/>
+        <c:crossAx val="123068416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="100"/>
@@ -3993,7 +3993,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000167" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000167" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000178" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000178" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
   </c:printSettings>
 </c:chartSpace>
@@ -6968,61 +6968,61 @@
     <row r="4" spans="1:41" s="1" customFormat="1" ht="17.25" customHeight="1">
       <c r="B4" s="66"/>
       <c r="C4" s="67"/>
-      <c r="D4" s="205" t="s">
+      <c r="D4" s="209" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="205"/>
-      <c r="F4" s="205" t="s">
+      <c r="E4" s="209"/>
+      <c r="F4" s="209" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="205"/>
+      <c r="G4" s="209"/>
       <c r="H4" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="206" t="s">
+      <c r="I4" s="203" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="206"/>
-      <c r="K4" s="206"/>
-      <c r="L4" s="206"/>
-      <c r="M4" s="206"/>
-      <c r="N4" s="206"/>
-      <c r="O4" s="207" t="s">
+      <c r="J4" s="203"/>
+      <c r="K4" s="203"/>
+      <c r="L4" s="203"/>
+      <c r="M4" s="203"/>
+      <c r="N4" s="203"/>
+      <c r="O4" s="202" t="s">
         <v>3</v>
       </c>
-      <c r="P4" s="207"/>
-      <c r="Q4" s="207"/>
-      <c r="R4" s="207"/>
-      <c r="S4" s="207"/>
+      <c r="P4" s="202"/>
+      <c r="Q4" s="202"/>
+      <c r="R4" s="202"/>
+      <c r="S4" s="202"/>
       <c r="T4" s="69"/>
-      <c r="U4" s="206" t="s">
+      <c r="U4" s="203" t="s">
         <v>53</v>
       </c>
-      <c r="V4" s="206"/>
-      <c r="W4" s="206"/>
-      <c r="X4" s="206"/>
-      <c r="Y4" s="206"/>
-      <c r="Z4" s="208" t="s">
+      <c r="V4" s="203"/>
+      <c r="W4" s="203"/>
+      <c r="X4" s="203"/>
+      <c r="Y4" s="203"/>
+      <c r="Z4" s="204" t="s">
         <v>65</v>
       </c>
-      <c r="AA4" s="208"/>
-      <c r="AB4" s="208"/>
+      <c r="AA4" s="204"/>
+      <c r="AB4" s="204"/>
       <c r="AC4" s="66"/>
-      <c r="AD4" s="209" t="s">
+      <c r="AD4" s="205" t="s">
         <v>6</v>
       </c>
-      <c r="AE4" s="209"/>
-      <c r="AF4" s="209"/>
-      <c r="AG4" s="209"/>
-      <c r="AH4" s="209"/>
-      <c r="AI4" s="209"/>
-      <c r="AJ4" s="209"/>
-      <c r="AK4" s="209"/>
-      <c r="AL4" s="209"/>
-      <c r="AM4" s="207">
+      <c r="AE4" s="205"/>
+      <c r="AF4" s="205"/>
+      <c r="AG4" s="205"/>
+      <c r="AH4" s="205"/>
+      <c r="AI4" s="205"/>
+      <c r="AJ4" s="205"/>
+      <c r="AK4" s="205"/>
+      <c r="AL4" s="205"/>
+      <c r="AM4" s="202">
         <v>1</v>
       </c>
-      <c r="AN4" s="207"/>
+      <c r="AN4" s="202"/>
     </row>
     <row r="5" spans="1:41" s="1" customFormat="1" ht="5.25" customHeight="1">
       <c r="B5" s="70"/>
@@ -12788,12 +12788,12 @@
     </row>
     <row r="48" spans="1:40" s="63" customFormat="1" ht="15">
       <c r="B48" s="108"/>
-      <c r="C48" s="202"/>
-      <c r="D48" s="202"/>
-      <c r="E48" s="202"/>
-      <c r="F48" s="202"/>
-      <c r="G48" s="202"/>
-      <c r="H48" s="202"/>
+      <c r="C48" s="206"/>
+      <c r="D48" s="206"/>
+      <c r="E48" s="206"/>
+      <c r="F48" s="206"/>
+      <c r="G48" s="206"/>
+      <c r="H48" s="206"/>
       <c r="I48" s="62"/>
       <c r="J48" s="62"/>
       <c r="K48" s="62"/>
@@ -12829,9 +12829,9 @@
     </row>
     <row r="49" spans="2:40" s="63" customFormat="1" ht="15">
       <c r="B49" s="108"/>
-      <c r="C49" s="202"/>
-      <c r="D49" s="203"/>
-      <c r="E49" s="203"/>
+      <c r="C49" s="206"/>
+      <c r="D49" s="207"/>
+      <c r="E49" s="207"/>
       <c r="F49" s="109"/>
       <c r="G49" s="109"/>
       <c r="H49" s="109"/>
@@ -12870,8 +12870,8 @@
     </row>
     <row r="50" spans="2:40" s="63" customFormat="1" ht="15">
       <c r="B50" s="108"/>
-      <c r="C50" s="202"/>
-      <c r="D50" s="203"/>
+      <c r="C50" s="206"/>
+      <c r="D50" s="207"/>
       <c r="E50" s="110"/>
       <c r="F50" s="109"/>
       <c r="G50" s="109"/>
@@ -12952,12 +12952,12 @@
     </row>
     <row r="52" spans="2:40" s="65" customFormat="1" ht="15">
       <c r="B52" s="111"/>
-      <c r="C52" s="204"/>
-      <c r="D52" s="204"/>
-      <c r="E52" s="204"/>
-      <c r="F52" s="204"/>
-      <c r="G52" s="204"/>
-      <c r="H52" s="204"/>
+      <c r="C52" s="208"/>
+      <c r="D52" s="208"/>
+      <c r="E52" s="208"/>
+      <c r="F52" s="208"/>
+      <c r="G52" s="208"/>
+      <c r="H52" s="208"/>
       <c r="I52" s="64"/>
       <c r="J52" s="64"/>
       <c r="K52" s="64"/>
@@ -13002,18 +13002,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C48:H48"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C52:H52"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
     <mergeCell ref="AM4:AN4"/>
     <mergeCell ref="I4:N4"/>
     <mergeCell ref="O4:S4"/>
     <mergeCell ref="U4:Y4"/>
     <mergeCell ref="Z4:AB4"/>
     <mergeCell ref="AD4:AL4"/>
-    <mergeCell ref="C48:H48"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="C52:H52"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
   </mergeCells>
   <conditionalFormatting sqref="B7:H46">
     <cfRule type="expression" dxfId="16" priority="11" stopIfTrue="1">
